--- a/documentos/EstudioYoutube.xlsx
+++ b/documentos/EstudioYoutube.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>fecha</t>
   </si>
@@ -360,13 +360,91 @@
   </si>
   <si>
     <t>Curso Power BI - Cómo hacer informes en Power BI</t>
+  </si>
+  <si>
+    <t>6. Modelo Estrella</t>
+  </si>
+  <si>
+    <t>7. Introduccion</t>
+  </si>
+  <si>
+    <t>8. Denormalizacion</t>
+  </si>
+  <si>
+    <t>9. Llaves primarias</t>
+  </si>
+  <si>
+    <t>10, Datos nulos</t>
+  </si>
+  <si>
+    <t>11. Slowly Changing Dimension</t>
+  </si>
+  <si>
+    <t>13. Dimension Calendario</t>
+  </si>
+  <si>
+    <t>14. Dimension Role Playing</t>
+  </si>
+  <si>
+    <t>historia de la Ingeniería de Datos</t>
+  </si>
+  <si>
+    <t>15. Dimension Junk</t>
+  </si>
+  <si>
+    <t>16. Dimension Snowflake</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Introducción [Video 1]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Git [Video 2]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | GitHub [Video 3]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Programas para empezar [Video 4]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Variables [Video 5]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Condicionales [Video 6]</t>
+  </si>
+  <si>
+    <t>17. Introduccion</t>
+  </si>
+  <si>
+    <t>18. Tipos de Facts</t>
+  </si>
+  <si>
+    <t>19. Llaves primarias</t>
+  </si>
+  <si>
+    <t>20. Tipos de medidas</t>
+  </si>
+  <si>
+    <t>21. Cambios de origen</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Mi año como PJ de Dungeon &amp; Dragons [Video 8]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Listas [Video 9]</t>
+  </si>
+  <si>
+    <t>22. Introduccion</t>
+  </si>
+  <si>
+    <t>23. Base de datos de un Data Warehouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +482,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF303141"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,6 +532,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +580,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -606,7 +692,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1412,8 +1497,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E65" totalsRowShown="0">
-  <autoFilter ref="B2:E65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E91" totalsRowShown="0">
+  <autoFilter ref="B2:E91">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="1" dateTimeGrouping="month"/>
@@ -1716,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E65"/>
+  <dimension ref="A2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1728,6 +1813,7 @@
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2613,7 +2699,7 @@
         <v>5.4398148148148144E-4</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:9">
       <c r="B65" s="1">
         <v>45748</v>
       </c>
@@ -2625,6 +2711,372 @@
       </c>
       <c r="E65" s="6">
         <v>5.3125000000000004E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1.0069444444444444E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3.8194444444444446E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="17.25">
+      <c r="B69" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="6">
+        <v>5.9027777777777778E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="16.5">
+      <c r="B71" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2.3032407407407407E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="16.5">
+      <c r="B72" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="6">
+        <v>7.175925925925927E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="16.5">
+      <c r="B73" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="6">
+        <v>4.9768518518518521E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1.3182870370370371E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="2:9" ht="16.5">
+      <c r="B76" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="6">
+        <v>2.0486111111111113E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2.3842592592592591E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2.5694444444444445E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="6">
+        <v>3.7268518518518514E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="6">
+        <v>5.115740740740741E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" s="6">
+        <v>9.3634259259259261E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="6">
+        <v>4.6296296296296293E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1.2152777777777778E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="16.5">
+      <c r="B86" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="6">
+        <v>4.5138888888888892E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="6">
+        <v>4.3981481481481481E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="6">
+        <v>5.9722222222222225E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="6">
+        <v>8.1018518518518516E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="6">
+        <v>7.905092592592592E-3</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/EstudioYoutube.xlsx
+++ b/documentos/EstudioYoutube.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
   <si>
     <t>fecha</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>23. Base de datos de un Data Warehouse</t>
+  </si>
+  <si>
+    <t>2. Introducción a las bases de datos</t>
+  </si>
+  <si>
+    <t>Henry Alfonso Guío Ávila</t>
   </si>
 </sst>
 </file>
@@ -1497,8 +1503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E91" totalsRowShown="0">
-  <autoFilter ref="B2:E91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E92" totalsRowShown="0">
+  <autoFilter ref="B2:E92">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="1" dateTimeGrouping="month"/>
@@ -1801,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I91"/>
+  <dimension ref="A2:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3077,6 +3083,20 @@
       </c>
       <c r="E91" s="6">
         <v>7.905092592592592E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1.9212962962962962E-3</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/EstudioYoutube.xlsx
+++ b/documentos/EstudioYoutube.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
   <si>
     <t>fecha</t>
   </si>
@@ -444,6 +444,24 @@
   </si>
   <si>
     <t>Henry Alfonso Guío Ávila</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Diccionarios [Video 11]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | For loop [Video 10]</t>
+  </si>
+  <si>
+    <t>3. Concepto y evolución de las bases de datos</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Funciones 1 [Video 12]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Funciones 2 [Video 13]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Archivos 1 [Video 14]</t>
   </si>
 </sst>
 </file>
@@ -547,16 +565,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1503,8 +1521,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E92" totalsRowShown="0">
-  <autoFilter ref="B2:E92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E98" totalsRowShown="0">
+  <autoFilter ref="B2:E98">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="1" dateTimeGrouping="month"/>
@@ -1512,10 +1530,10 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="fecha" dataDxfId="3"/>
+    <tableColumn id="1" name="fecha" dataDxfId="1"/>
     <tableColumn id="2" name="canal"/>
     <tableColumn id="4" name="TEMA"/>
-    <tableColumn id="3" name="tiempo" dataDxfId="2"/>
+    <tableColumn id="3" name="tiempo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,7 +1544,7 @@
   <autoFilter ref="B2:C5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="mes"/>
-    <tableColumn id="2" name="tiempo" dataDxfId="1"/>
+    <tableColumn id="2" name="tiempo" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1538,7 +1556,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="canal"/>
     <tableColumn id="2" name="utilidad"/>
-    <tableColumn id="3" name="ultima fecha de revision" dataDxfId="0"/>
+    <tableColumn id="3" name="ultima fecha de revision" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1807,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I92"/>
+  <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3097,6 +3115,90 @@
       </c>
       <c r="E92" s="6">
         <v>1.9212962962962962E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" s="6">
+        <v>8.6921296296296312E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="6">
+        <v>9.3402777777777772E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="6">
+        <v>2.0138888888888888E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C96" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="6">
+        <v>7.1643518518518514E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="6">
+        <v>7.9745370370370369E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="6">
+        <v>3.9930555555555561E-3</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/EstudioYoutube.xlsx
+++ b/documentos/EstudioYoutube.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="159">
   <si>
     <t>fecha</t>
   </si>
@@ -462,6 +462,42 @@
   </si>
   <si>
     <t>Aprender a Programar | Archivos 1 [Video 14]</t>
+  </si>
+  <si>
+    <t>4. Usos de las bases de datos</t>
+  </si>
+  <si>
+    <t>Cómo crear tabla puente en Power BI para obtener una relación muchos a muchos entre dos tablas</t>
+  </si>
+  <si>
+    <t>Dapen Centro Estudios</t>
+  </si>
+  <si>
+    <t>Responsabilidades de un Ingeniero de Datos</t>
+  </si>
+  <si>
+    <t>5. Tipos de modelos de bases de datos</t>
+  </si>
+  <si>
+    <t>Cómo usar la visualización de medidor en Power BI para comparar contra un objetivo</t>
+  </si>
+  <si>
+    <t>🔥💥 Explota el medidor (Velocímetro) de Power BI como todo un experto! 🚀💪 #Excel #PowerBI</t>
+  </si>
+  <si>
+    <t>Microsoft Excel a Todo Nivel</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Archivos 3 [Video 16]</t>
+  </si>
+  <si>
+    <t>Aprender a Programar | Archivos 4 [Video 17]</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>6. Requisitos de negocio</t>
   </si>
 </sst>
 </file>
@@ -565,16 +601,16 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,6 +640,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -716,6 +753,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -735,9 +773,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$B$3:$B$5</c:f>
+              <c:f>Hoja2!$B$3:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -747,15 +785,18 @@
                 <c:pt idx="2">
                   <c:v>Marzo</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$3:$C$5</c:f>
+              <c:f>Hoja2!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -764,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.36324074074074075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17076388888888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,30 +1565,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E98" totalsRowShown="0">
-  <autoFilter ref="B2:E98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E107" totalsRowShown="0">
+  <autoFilter ref="B2:E107">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="1" dateTimeGrouping="month"/>
+        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="fecha" dataDxfId="1"/>
+    <tableColumn id="1" name="fecha" dataDxfId="3"/>
     <tableColumn id="2" name="canal"/>
     <tableColumn id="4" name="TEMA"/>
-    <tableColumn id="3" name="tiempo" dataDxfId="0"/>
+    <tableColumn id="3" name="tiempo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C5" totalsRowShown="0">
-  <autoFilter ref="B2:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C6" totalsRowShown="0">
+  <autoFilter ref="B2:C6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="mes"/>
-    <tableColumn id="2" name="tiempo" dataDxfId="3"/>
+    <tableColumn id="2" name="tiempo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1556,7 +1601,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="canal"/>
     <tableColumn id="2" name="utilidad"/>
-    <tableColumn id="3" name="ultima fecha de revision" dataDxfId="2"/>
+    <tableColumn id="3" name="ultima fecha de revision" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1825,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I98"/>
+  <dimension ref="A2:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2723,7 +2768,7 @@
         <v>5.4398148148148144E-4</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" hidden="1">
       <c r="B65" s="1">
         <v>45748</v>
       </c>
@@ -2737,7 +2782,7 @@
         <v>5.3125000000000004E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" hidden="1">
       <c r="B66" s="1">
         <v>45749</v>
       </c>
@@ -2751,7 +2796,7 @@
         <v>1.0069444444444444E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" hidden="1">
       <c r="B67" s="1">
         <v>45750</v>
       </c>
@@ -2765,7 +2810,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" hidden="1">
       <c r="B68" s="1">
         <v>45751</v>
       </c>
@@ -2779,7 +2824,7 @@
         <v>3.8194444444444446E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="17.25">
+    <row r="69" spans="2:9" ht="17.25" hidden="1">
       <c r="B69" s="1">
         <v>45751</v>
       </c>
@@ -2793,7 +2838,7 @@
         <v>5.9027777777777778E-4</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" hidden="1">
       <c r="B70" s="1">
         <v>45754</v>
       </c>
@@ -2807,7 +2852,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="16.5">
+    <row r="71" spans="2:9" ht="16.5" hidden="1">
       <c r="B71" s="1">
         <v>45754</v>
       </c>
@@ -2821,7 +2866,7 @@
         <v>2.3032407407407407E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="16.5">
+    <row r="72" spans="2:9" ht="16.5" hidden="1">
       <c r="B72" s="1">
         <v>45755</v>
       </c>
@@ -2835,7 +2880,7 @@
         <v>7.175925925925927E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="16.5">
+    <row r="73" spans="2:9" ht="16.5" hidden="1">
       <c r="B73" s="1">
         <v>45755</v>
       </c>
@@ -2849,7 +2894,7 @@
         <v>4.9768518518518521E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" hidden="1">
       <c r="B74" s="1">
         <v>45755</v>
       </c>
@@ -2863,7 +2908,7 @@
         <v>1.3182870370370371E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" hidden="1">
       <c r="B75" s="1">
         <v>45756</v>
       </c>
@@ -2878,7 +2923,7 @@
       </c>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="2:9" ht="16.5">
+    <row r="76" spans="2:9" ht="16.5" hidden="1">
       <c r="B76" s="1">
         <v>45756</v>
       </c>
@@ -2893,7 +2938,7 @@
       </c>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" hidden="1">
       <c r="B77" s="1">
         <v>45756</v>
       </c>
@@ -2907,7 +2952,7 @@
         <v>2.0486111111111113E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" hidden="1">
       <c r="B78" s="1">
         <v>45756</v>
       </c>
@@ -2921,7 +2966,7 @@
         <v>2.3842592592592591E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" hidden="1">
       <c r="B79" s="1">
         <v>45756</v>
       </c>
@@ -2935,7 +2980,7 @@
         <v>2.5694444444444445E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" hidden="1">
       <c r="B80" s="1">
         <v>45756</v>
       </c>
@@ -2949,7 +2994,7 @@
         <v>3.7268518518518514E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" hidden="1">
       <c r="B81" s="1">
         <v>45756</v>
       </c>
@@ -2963,7 +3008,7 @@
         <v>5.115740740740741E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" hidden="1">
       <c r="B82" s="1">
         <v>45756</v>
       </c>
@@ -2977,7 +3022,7 @@
         <v>9.3634259259259261E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" hidden="1">
       <c r="B83" s="1">
         <v>45757</v>
       </c>
@@ -2991,7 +3036,7 @@
         <v>4.6296296296296293E-4</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" hidden="1">
       <c r="B84" s="1">
         <v>45757</v>
       </c>
@@ -3005,7 +3050,7 @@
         <v>1.2152777777777778E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" hidden="1">
       <c r="B85" s="1">
         <v>45758</v>
       </c>
@@ -3019,7 +3064,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="16.5">
+    <row r="86" spans="2:5" ht="16.5" hidden="1">
       <c r="B86" s="1">
         <v>45758</v>
       </c>
@@ -3033,7 +3078,7 @@
         <v>4.5138888888888892E-4</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" hidden="1">
       <c r="B87" s="1">
         <v>45758</v>
       </c>
@@ -3047,7 +3092,7 @@
         <v>4.3981481481481481E-4</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" hidden="1">
       <c r="B88" s="1">
         <v>45758</v>
       </c>
@@ -3061,7 +3106,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" hidden="1">
       <c r="B89" s="1">
         <v>45761</v>
       </c>
@@ -3075,7 +3120,7 @@
         <v>5.9722222222222225E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" hidden="1">
       <c r="B90" s="1">
         <v>45761</v>
       </c>
@@ -3089,7 +3134,7 @@
         <v>8.1018518518518516E-4</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" hidden="1">
       <c r="B91" s="1">
         <v>45763</v>
       </c>
@@ -3103,7 +3148,7 @@
         <v>7.905092592592592E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" hidden="1">
       <c r="B92" s="1">
         <v>45768</v>
       </c>
@@ -3117,7 +3162,7 @@
         <v>1.9212962962962962E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" hidden="1">
       <c r="B93" s="1">
         <v>45768</v>
       </c>
@@ -3131,7 +3176,7 @@
         <v>8.6921296296296312E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" hidden="1">
       <c r="B94" s="1">
         <v>45768</v>
       </c>
@@ -3145,7 +3190,7 @@
         <v>9.3402777777777772E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" hidden="1">
       <c r="B95" s="1">
         <v>45769</v>
       </c>
@@ -3159,7 +3204,7 @@
         <v>2.0138888888888888E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" hidden="1">
       <c r="B96" s="1">
         <v>45769</v>
       </c>
@@ -3173,7 +3218,7 @@
         <v>7.1643518518518514E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" hidden="1">
       <c r="B97" s="1">
         <v>45769</v>
       </c>
@@ -3187,7 +3232,7 @@
         <v>7.9745370370370369E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" hidden="1">
       <c r="B98" s="1">
         <v>45769</v>
       </c>
@@ -3199,6 +3244,132 @@
       </c>
       <c r="E98" s="6">
         <v>3.9930555555555561E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" hidden="1">
+      <c r="B99" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1.9675925925925928E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" hidden="1">
+      <c r="B100" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="6">
+        <v>3.7847222222222223E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" hidden="1">
+      <c r="B101" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1.4097222222222221E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" hidden="1">
+      <c r="B102" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="6">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" hidden="1">
+      <c r="B103" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" s="6">
+        <v>5.4629629629629637E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" hidden="1">
+      <c r="B104" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C104" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" s="6">
+        <v>8.4143518518518517E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" hidden="1">
+      <c r="B105" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="6">
+        <v>8.7384259259259255E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="6">
+        <v>4.7685185185185183E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="1">
+        <v>45782</v>
+      </c>
+      <c r="C107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="6">
+        <v>7.3726851851851861E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3212,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3256,6 +3427,14 @@
         <v>0.36324074074074075</v>
       </c>
     </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.17076388888888891</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3267,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3278,9 +3457,10 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3291,7 +3471,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -3302,7 +3482,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -3313,7 +3493,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -3324,7 +3504,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -3334,8 +3514,11 @@
       <c r="D6" s="1">
         <v>45747</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="H6" s="13">
+        <v>9252750</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>103</v>
       </c>
@@ -3345,8 +3528,11 @@
       <c r="D7" s="1">
         <v>45747</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="H7" s="13">
+        <v>9252750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>105</v>
       </c>

--- a/documentos/EstudioYoutube.xlsx
+++ b/documentos/EstudioYoutube.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="229">
   <si>
     <t>fecha</t>
   </si>
@@ -498,6 +498,216 @@
   </si>
   <si>
     <t>6. Requisitos de negocio</t>
+  </si>
+  <si>
+    <t>introduccion poo video1</t>
+  </si>
+  <si>
+    <t>introduccion poo video2</t>
+  </si>
+  <si>
+    <t>introduccion poo video3</t>
+  </si>
+  <si>
+    <t>Manejo de Excepciones | Programación Orientada a Objetos [Video 4]</t>
+  </si>
+  <si>
+    <t>Propiedades de clases | Programación Orientada a Objetos [Video 5]</t>
+  </si>
+  <si>
+    <t>recursividad</t>
+  </si>
+  <si>
+    <t>Estructuras de datos 1 | Programación Orientada a Objetos [Video 7]</t>
+  </si>
+  <si>
+    <t>7. Bases de datos relacionales</t>
+  </si>
+  <si>
+    <t>Year review 2019</t>
+  </si>
+  <si>
+    <t>8. Modelos de datos conceptuales,lógicos y relacionales</t>
+  </si>
+  <si>
+    <t>9. Entidades y atributos</t>
+  </si>
+  <si>
+    <t>🌏 Curso Básico Fundamentos de Ingeniería de Datos ➯➯ Guía Completa</t>
+  </si>
+  <si>
+    <t>RaspiCode</t>
+  </si>
+  <si>
+    <t>filtros TopN</t>
+  </si>
+  <si>
+    <t>Edición de Columnas en Power Query - Eliminar, Dividir y Extraer Datos Fácilmente</t>
+  </si>
+  <si>
+    <t>Grow Up | Escuela de Análisis de Datos</t>
+  </si>
+  <si>
+    <t>7 Relaciones</t>
+  </si>
+  <si>
+    <t>10 Segmentación de Datos</t>
+  </si>
+  <si>
+    <t>11 Aplicar Formatos</t>
+  </si>
+  <si>
+    <t>Análisis Básico de Encuestas con Power BI</t>
+  </si>
+  <si>
+    <t>Estructuras de datos 2 | Programación Orientada a Objetos [Video 8]</t>
+  </si>
+  <si>
+    <t>10. Identificadores únicos</t>
+  </si>
+  <si>
+    <t>11. Relaciones entre entidades</t>
+  </si>
+  <si>
+    <t>Combinar Múltiples Libros de Excel desde una Carpeta</t>
+  </si>
+  <si>
+    <t>Mi PEOR Error al Diseñar una BASE de DATOS</t>
+  </si>
+  <si>
+    <t>hdeleon.net</t>
+  </si>
+  <si>
+    <t>Estructuras de datos 3 | Programación Orientada a Objetos [Video 9]</t>
+  </si>
+  <si>
+    <t>✅ Cómo EMPEZAR a PROGRAMAR ➭➭ Consejos Esenciales</t>
+  </si>
+  <si>
+    <t>12. Tipos de relaciones entre entidades</t>
+  </si>
+  <si>
+    <t>13. Diagrama Entidad Relación</t>
+  </si>
+  <si>
+    <t>14. Lenguaje ERDish</t>
+  </si>
+  <si>
+    <t>🚨Cómo Superar el Burnout en Programación🚨 | 5 Estrategias para Recuperar</t>
+  </si>
+  <si>
+    <t>Cambiar Temas de Color en Power BI Desktop</t>
+  </si>
+  <si>
+    <t>15. Mas sobre relaciones</t>
+  </si>
+  <si>
+    <t>16. Resolviendo relaciones</t>
+  </si>
+  <si>
+    <t>17. Seguimiento de cambios de datos en el tiempo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>18. Normalización y reglas de negocio</t>
+  </si>
+  <si>
+    <t>Yury Zavaleta</t>
+  </si>
+  <si>
+    <t>40. Introducción a Inyección</t>
+  </si>
+  <si>
+    <t>41. A1 Missing Function Level Access Control</t>
+  </si>
+  <si>
+    <t>4. Using Angular to setup a shopping frontend</t>
+  </si>
+  <si>
+    <t>Shuhan Xu</t>
+  </si>
+  <si>
+    <t>5. Testing and deployment</t>
+  </si>
+  <si>
+    <t>3. Instalaciones iniciales y configuración</t>
+  </si>
+  <si>
+    <t>Fernando Herrera</t>
+  </si>
+  <si>
+    <t>4. Mis recomendaciones iniciales</t>
+  </si>
+  <si>
+    <t>5. Extensiones recomendadas</t>
+  </si>
+  <si>
+    <t>6. Sincronizar configuraciones de VSCode</t>
+  </si>
+  <si>
+    <t>7. Configurar el comando "Code"</t>
+  </si>
+  <si>
+    <t>8. ¡Únete a Nuestra Comunidad de DevTalles en Discord!</t>
+  </si>
+  <si>
+    <t>23. Tabulaciones</t>
+  </si>
+  <si>
+    <t>24. Creación rápida de carpetas y archivos</t>
+  </si>
+  <si>
+    <t>44. CodeSnap</t>
+  </si>
+  <si>
+    <t>48. Settings.json</t>
+  </si>
+  <si>
+    <t>Funcion em</t>
+  </si>
+  <si>
+    <t>Juan Carlos Amaranto González</t>
+  </si>
+  <si>
+    <t>Funcion url - Caso</t>
+  </si>
+  <si>
+    <t>Funcion Quote &amp; Unquote</t>
+  </si>
+  <si>
+    <t>¿Qué es un Data Pipeline?</t>
+  </si>
+  <si>
+    <t>Colores I</t>
+  </si>
+  <si>
+    <t>Colores II</t>
+  </si>
+  <si>
+    <t>Source maps</t>
+  </si>
+  <si>
+    <t>Proyecto 01 - Configuracion entorno</t>
+  </si>
+  <si>
+    <t>Proyecto 01 - Estilos generales</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Proyecto 01 - Menu</t>
+  </si>
+  <si>
+    <t>4. First web page</t>
+  </si>
+  <si>
+    <t>Code Block</t>
+  </si>
+  <si>
+    <t>5. An Overview of HTML</t>
   </si>
 </sst>
 </file>
@@ -569,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -595,6 +805,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +853,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -753,7 +965,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -773,9 +984,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$B$3:$B$6</c:f>
+              <c:f>Hoja2!$B$3:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Enero</c:v>
                 </c:pt>
@@ -788,15 +999,21 @@
                 <c:pt idx="3">
                   <c:v>Abril</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$3:$C$6</c:f>
+              <c:f>Hoja2!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -808,6 +1025,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17076388888888891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.279212962962963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10824074074074075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,12 +1788,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E107" totalsRowShown="0">
-  <autoFilter ref="B2:E107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:E167" totalsRowShown="0">
+  <autoFilter ref="B2:E167">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2025" month="1" dateTimeGrouping="month"/>
-        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
+        <dateGroupItem year="2025" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1585,8 +1807,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C6" totalsRowShown="0">
-  <autoFilter ref="B2:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C8" totalsRowShown="0">
+  <autoFilter ref="B2:C8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="mes"/>
     <tableColumn id="2" name="tiempo" dataDxfId="1"/>
@@ -1870,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I107"/>
+  <dimension ref="A2:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1899,7 +2121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" hidden="1">
       <c r="B3" s="1">
         <v>45685</v>
       </c>
@@ -1913,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" hidden="1">
       <c r="B4" s="1">
         <v>45686</v>
       </c>
@@ -1927,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" hidden="1">
       <c r="B5" s="1">
         <v>45687</v>
       </c>
@@ -1941,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" hidden="1">
       <c r="B6" s="1">
         <v>45688</v>
       </c>
@@ -3344,7 +3566,7 @@
         <v>8.7384259259259255E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" hidden="1">
       <c r="B106" s="1">
         <v>45779</v>
       </c>
@@ -3358,7 +3580,7 @@
         <v>4.7685185185185183E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" hidden="1">
       <c r="B107" s="1">
         <v>45782</v>
       </c>
@@ -3370,6 +3592,846 @@
       </c>
       <c r="E107" s="6">
         <v>7.3726851851851861E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" hidden="1">
+      <c r="B108" s="1">
+        <v>45783</v>
+      </c>
+      <c r="C108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="6">
+        <v>5.7754629629629623E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" hidden="1">
+      <c r="B109" s="1">
+        <v>45784</v>
+      </c>
+      <c r="C109" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" s="6">
+        <v>8.6921296296296312E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" hidden="1">
+      <c r="B110" s="1">
+        <v>45789</v>
+      </c>
+      <c r="C110" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="6">
+        <v>6.5162037037037037E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" hidden="1">
+      <c r="B111" s="1">
+        <v>45791</v>
+      </c>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" s="6">
+        <v>8.113425925925925E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" hidden="1">
+      <c r="B112" s="1">
+        <v>45792</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" s="6">
+        <v>7.3611111111111108E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" hidden="1">
+      <c r="B113" s="1">
+        <v>45793</v>
+      </c>
+      <c r="C113" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" t="s">
+        <v>164</v>
+      </c>
+      <c r="E113" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" hidden="1">
+      <c r="B114" s="1">
+        <v>45796</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="6">
+        <v>7.9629629629629634E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" hidden="1">
+      <c r="B115" s="1">
+        <v>45796</v>
+      </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2.8703703703703708E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" hidden="1">
+      <c r="B116" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C116" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" s="6">
+        <v>6.3657407407407404E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" hidden="1">
+      <c r="B117" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C117" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="6">
+        <v>5.4282407407407404E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" hidden="1">
+      <c r="B118" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118" t="s">
+        <v>169</v>
+      </c>
+      <c r="E118" s="6">
+        <v>6.6319444444444446E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" hidden="1">
+      <c r="B119" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="6">
+        <v>3.4861111111111114E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" hidden="1">
+      <c r="B120" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>172</v>
+      </c>
+      <c r="E120" s="6">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" hidden="1">
+      <c r="B121" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>173</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1.1701388888888891E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" hidden="1">
+      <c r="B122" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C122" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="6">
+        <v>9.9884259259259266E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" hidden="1">
+      <c r="B123" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C123" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="6">
+        <v>6.2268518518518515E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" hidden="1">
+      <c r="B124" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" s="6">
+        <v>6.5972222222222222E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" hidden="1">
+      <c r="B125" s="1">
+        <v>45797</v>
+      </c>
+      <c r="C125" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" t="s">
+        <v>178</v>
+      </c>
+      <c r="E125" s="6">
+        <v>2.3738425925925923E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" hidden="1">
+      <c r="B126" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1.5671296296296298E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" hidden="1">
+      <c r="B127" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>180</v>
+      </c>
+      <c r="E127" s="6">
+        <v>7.3611111111111108E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" hidden="1">
+      <c r="B128" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" t="s">
+        <v>181</v>
+      </c>
+      <c r="E128" s="6">
+        <v>6.7361111111111103E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" hidden="1">
+      <c r="B129" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C129" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" t="s">
+        <v>182</v>
+      </c>
+      <c r="E129" s="6">
+        <v>3.9814814814814817E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" hidden="1">
+      <c r="B130" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C130" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130" t="s">
+        <v>183</v>
+      </c>
+      <c r="E130" s="6">
+        <v>8.564814814814815E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" hidden="1">
+      <c r="B131" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C131" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1.0011574074074074E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" hidden="1">
+      <c r="B132" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" t="s">
+        <v>186</v>
+      </c>
+      <c r="E132" s="6">
+        <v>1.0243055555555556E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" hidden="1">
+      <c r="B133" s="1">
+        <v>45800</v>
+      </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" s="6">
+        <v>3.9814814814814817E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" hidden="1">
+      <c r="B134" s="1">
+        <v>45803</v>
+      </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2.5347222222222221E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" hidden="1">
+      <c r="B135" s="1">
+        <v>45803</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>189</v>
+      </c>
+      <c r="E135" s="6">
+        <v>3.4375E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" hidden="1">
+      <c r="B136" s="1">
+        <v>45803</v>
+      </c>
+      <c r="C136" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" t="s">
+        <v>190</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1.5266203703703705E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" hidden="1">
+      <c r="B137" s="1">
+        <v>45803</v>
+      </c>
+      <c r="C137" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="6">
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" hidden="1">
+      <c r="B138" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E138" s="6">
+        <v>4.340277777777778E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" hidden="1">
+      <c r="B139" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="6">
+        <v>4.7222222222222223E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="1">
+        <v>45812</v>
+      </c>
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" t="s">
+        <v>194</v>
+      </c>
+      <c r="E140" s="6">
+        <v>6.122685185185185E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" t="s">
+        <v>196</v>
+      </c>
+      <c r="E141" s="6">
+        <v>7.0023148148148154E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="1">
+        <v>45814</v>
+      </c>
+      <c r="C142" t="s">
+        <v>197</v>
+      </c>
+      <c r="D142" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="6">
+        <v>8.819444444444444E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C143" t="s">
+        <v>197</v>
+      </c>
+      <c r="D143" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" s="15">
+        <v>6.3657407407407404E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="1">
+        <v>45820</v>
+      </c>
+      <c r="C144" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144" t="s">
+        <v>200</v>
+      </c>
+      <c r="E144" s="6">
+        <v>9.7569444444444448E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="1">
+        <v>45820</v>
+      </c>
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" t="s">
+        <v>202</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1.6087962962962963E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C146" t="s">
+        <v>204</v>
+      </c>
+      <c r="D146" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146" s="6">
+        <v>2.2916666666666667E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C147" t="s">
+        <v>204</v>
+      </c>
+      <c r="D147" t="s">
+        <v>205</v>
+      </c>
+      <c r="E147" s="6">
+        <v>3.0902777777777782E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="1">
+        <v>45825</v>
+      </c>
+      <c r="C148" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" t="s">
+        <v>206</v>
+      </c>
+      <c r="E148" s="6">
+        <v>6.122685185185185E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="1">
+        <v>45825</v>
+      </c>
+      <c r="C149" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" t="s">
+        <v>207</v>
+      </c>
+      <c r="E149" s="6">
+        <v>2.2569444444444447E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C150" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" t="s">
+        <v>208</v>
+      </c>
+      <c r="E150" s="6">
+        <v>1.5162037037037036E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C151" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" t="s">
+        <v>209</v>
+      </c>
+      <c r="E151" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C152" t="s">
+        <v>204</v>
+      </c>
+      <c r="D152" t="s">
+        <v>210</v>
+      </c>
+      <c r="E152" s="6">
+        <v>9.8379629629629642E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="1">
+        <v>45827</v>
+      </c>
+      <c r="C153" t="s">
+        <v>204</v>
+      </c>
+      <c r="D153" t="s">
+        <v>211</v>
+      </c>
+      <c r="E153" s="6">
+        <v>1.8750000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="1">
+        <v>45827</v>
+      </c>
+      <c r="C154" t="s">
+        <v>204</v>
+      </c>
+      <c r="D154" t="s">
+        <v>212</v>
+      </c>
+      <c r="E154" s="6">
+        <v>1.736111111111111E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="1">
+        <v>45827</v>
+      </c>
+      <c r="C155" t="s">
+        <v>204</v>
+      </c>
+      <c r="D155" t="s">
+        <v>213</v>
+      </c>
+      <c r="E155" s="6">
+        <v>2.0486111111111113E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="1">
+        <v>45832</v>
+      </c>
+      <c r="C156" t="s">
+        <v>215</v>
+      </c>
+      <c r="D156" t="s">
+        <v>214</v>
+      </c>
+      <c r="E156" s="6">
+        <v>2.1874999999999998E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="1">
+        <v>45832</v>
+      </c>
+      <c r="C157" t="s">
+        <v>215</v>
+      </c>
+      <c r="D157" t="s">
+        <v>216</v>
+      </c>
+      <c r="E157" s="6">
+        <v>4.2361111111111106E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="1">
+        <v>45833</v>
+      </c>
+      <c r="C158" t="s">
+        <v>215</v>
+      </c>
+      <c r="D158" t="s">
+        <v>217</v>
+      </c>
+      <c r="E158" s="6">
+        <v>4.8726851851851856E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="1">
+        <v>45833</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" t="s">
+        <v>218</v>
+      </c>
+      <c r="E159" s="6">
+        <v>5.9027777777777776E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="1">
+        <v>45834</v>
+      </c>
+      <c r="C160" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" t="s">
+        <v>219</v>
+      </c>
+      <c r="E160" s="6">
+        <v>1.0486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="1">
+        <v>45834</v>
+      </c>
+      <c r="C161" t="s">
+        <v>215</v>
+      </c>
+      <c r="D161" t="s">
+        <v>220</v>
+      </c>
+      <c r="E161" s="6">
+        <v>8.7615740740740744E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="1">
+        <v>45835</v>
+      </c>
+      <c r="C162" t="s">
+        <v>215</v>
+      </c>
+      <c r="D162" t="s">
+        <v>221</v>
+      </c>
+      <c r="E162" s="6">
+        <v>4.9768518518518521E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="1">
+        <v>45835</v>
+      </c>
+      <c r="C163" t="s">
+        <v>215</v>
+      </c>
+      <c r="D163" t="s">
+        <v>222</v>
+      </c>
+      <c r="E163" s="6">
+        <v>2.4421296296296296E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="1">
+        <v>45839</v>
+      </c>
+      <c r="C164" t="s">
+        <v>215</v>
+      </c>
+      <c r="D164" t="s">
+        <v>223</v>
+      </c>
+      <c r="E164" s="6">
+        <v>3.7037037037037034E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="1">
+        <v>45839</v>
+      </c>
+      <c r="C165" t="s">
+        <v>215</v>
+      </c>
+      <c r="D165" t="s">
+        <v>225</v>
+      </c>
+      <c r="E165" s="6">
+        <v>7.5925925925925926E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="1">
+        <v>45840</v>
+      </c>
+      <c r="C166" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" t="s">
+        <v>226</v>
+      </c>
+      <c r="E166" s="6">
+        <v>5.3356481481481484E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="1">
+        <v>45840</v>
+      </c>
+      <c r="C167" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167" t="s">
+        <v>228</v>
+      </c>
+      <c r="E167" s="6">
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3383,10 +4445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3433,6 +4495,22 @@
       </c>
       <c r="C6" s="9">
         <v>0.17076388888888891</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.279212962962963</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.10824074074074075</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +4527,7 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3514,9 +4592,7 @@
       <c r="D6" s="1">
         <v>45747</v>
       </c>
-      <c r="H6" s="13">
-        <v>9252750</v>
-      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
@@ -3528,9 +4604,7 @@
       <c r="D7" s="1">
         <v>45747</v>
       </c>
-      <c r="H7" s="13">
-        <v>9252750</v>
-      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
@@ -3550,4 +4624,237 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001163588D5E5E9840B29DB82251AC4B0D" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f865f9ca31cdab2e9859d577c2c3acfe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="12e3404f-2aa1-470d-8f23-98f56b717fe7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0679dbf2e8ff1061b727863958b8082d" ns3:_="">
+    <xsd:import namespace="12e3404f-2aa1-470d-8f23-98f56b717fe7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="12e3404f-2aa1-470d-8f23-98f56b717fe7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="12" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410C11CC-E76A-4DD1-A5CE-4B9139F20722}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="12e3404f-2aa1-470d-8f23-98f56b717fe7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E9A603A-5EF3-4931-A82A-025FAC926C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E487D4E8-CDE6-45F2-927B-9662C8C6EC03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12e3404f-2aa1-470d-8f23-98f56b717fe7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>